--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivank\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014C153A-86E8-43A7-B6E3-FCB58B7B623E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7EF50-6DEE-4E5C-8070-E375AA9E972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F57FAF2-C585-43B2-9F71-B5A868E6E329}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>A2</t>
   </si>
@@ -50,13 +50,24 @@
   <si>
     <t>Column3</t>
   </si>
+  <si>
+    <t>xxx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -160,21 +171,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AABEC-A663-48A5-BB6F-4C466588E02B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:AAF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="ZX1" workbookViewId="0">
+      <selection activeCell="AAF1" sqref="AAF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +527,7 @@
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:708" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -510,8 +537,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="Z1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AAF1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:708" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -519,40 +552,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="3" spans="1:708" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <f>A4+B4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:708" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:708" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:708" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>8</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivank\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7EF50-6DEE-4E5C-8070-E375AA9E972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E215BFDB-9471-4C2D-A99A-5348BFD356E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F57FAF2-C585-43B2-9F71-B5A868E6E329}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{7F57FAF2-C585-43B2-9F71-B5A868E6E329}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A2</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Column3</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -516,18 +516,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AABEC-A663-48A5-BB6F-4C466588E02B}">
-  <dimension ref="A1:AAF6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ZX1" workbookViewId="0">
-      <selection activeCell="AAF1" sqref="AAF1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:708" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -537,28 +538,25 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AAF1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:708" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:708" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E3" s="1">
         <f>A4+B4</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:708" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -569,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:708" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -580,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:708" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>7</v>
       </c>
